--- a/setup_permission_user.xlsx
+++ b/setup_permission_user.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873F6C47-ABAC-46BF-9737-3462787255B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FA868A-3402-4613-BEE0-0C6CCE618F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="30" windowWidth="21600" windowHeight="11385" xr2:uid="{2EB50EEB-0106-4F15-B613-BBA954882111}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2EB50EEB-0106-4F15-B613-BBA954882111}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,21 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="36">
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>Pm</t>
-  </si>
-  <si>
-    <t>Lead</t>
-  </si>
-  <si>
-    <t>Sample</t>
-  </si>
-  <si>
-    <t>Staff</t>
-  </si>
-  <si>
     <t>Add</t>
   </si>
   <si>
@@ -142,6 +127,21 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>1:Admin</t>
+  </si>
+  <si>
+    <t>2:Sample</t>
+  </si>
+  <si>
+    <t>5:Pm</t>
+  </si>
+  <si>
+    <t>4:Staff</t>
+  </si>
+  <si>
+    <t>3:Lead</t>
   </si>
 </sst>
 </file>
@@ -623,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46012EC4-43BC-4E95-AAA1-2214AE93313A}">
   <dimension ref="A1:AJ65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,103 +641,103 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="V1" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Z1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AC1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="AI1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
@@ -745,38 +745,38 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N2">
         <v>3</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
@@ -791,7 +791,7 @@
         <v>3</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AB2" s="8"/>
       <c r="AC2" s="7"/>
@@ -808,40 +808,40 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N3">
         <v>4</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
@@ -856,7 +856,7 @@
         <v>4</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
@@ -873,78 +873,78 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N4">
         <v>5</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="X4" s="1"/>
       <c r="Z4">
         <v>5</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
@@ -954,40 +954,40 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N5">
         <v>6</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
@@ -1002,7 +1002,7 @@
         <v>6</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AB5" s="7"/>
       <c r="AC5" s="7"/>
@@ -1019,40 +1019,40 @@
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>7</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
@@ -1067,7 +1067,7 @@
         <v>7</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
@@ -1084,40 +1084,40 @@
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>9</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
@@ -1132,7 +1132,7 @@
         <v>9</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
@@ -1149,40 +1149,40 @@
         <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>10</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
@@ -1197,7 +1197,7 @@
         <v>10</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
@@ -1214,40 +1214,40 @@
         <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N9">
         <v>11</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
@@ -1262,7 +1262,7 @@
         <v>11</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
@@ -1279,40 +1279,40 @@
         <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N10">
         <v>12</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
@@ -1327,7 +1327,7 @@
         <v>12</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
@@ -1344,72 +1344,72 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N11">
         <v>8</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="X11" s="1"/>
       <c r="Z11">
         <v>8</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AD11" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
@@ -1423,40 +1423,40 @@
         <v>15</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N12">
         <v>15</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
@@ -1471,7 +1471,7 @@
         <v>15</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
@@ -1488,40 +1488,40 @@
         <v>16</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N13">
         <v>16</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -1536,7 +1536,7 @@
         <v>16</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
@@ -1553,69 +1553,69 @@
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="W14" s="1"/>
       <c r="X14" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Z14">
         <v>1</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
@@ -1626,7 +1626,7 @@
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
@@ -1634,44 +1634,44 @@
         <v>2</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N15">
         <v>2</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R15" s="4"/>
       <c r="S15" s="1"/>
@@ -1684,11 +1684,11 @@
         <v>2</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AB15" s="1"/>
       <c r="AC15" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
@@ -1703,49 +1703,49 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N16">
         <v>13</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="1"/>
@@ -1757,16 +1757,16 @@
         <v>13</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AB16" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AC16" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AD16" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AE16" s="4"/>
       <c r="AF16" s="1"/>
@@ -1780,40 +1780,40 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N17">
         <v>14</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -1821,7 +1821,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
@@ -1830,7 +1830,7 @@
         <v>14</v>
       </c>
       <c r="AA17" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
@@ -1839,7 +1839,7 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
       <c r="AH17" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
@@ -1849,16 +1849,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1870,7 +1870,7 @@
         <v>17</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="AA18" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
@@ -1902,16 +1902,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1923,7 +1923,7 @@
         <v>18</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
@@ -1938,7 +1938,7 @@
         <v>18</v>
       </c>
       <c r="AA19" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="AB19" s="7"/>
       <c r="AC19" s="7"/>
@@ -1952,70 +1952,70 @@
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="G22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="J22" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P22" s="2" t="s">
+      <c r="U22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="S22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="U22" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="V22" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
@@ -2023,7 +2023,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -2038,7 +2038,7 @@
         <v>3</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
@@ -2055,7 +2055,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -2070,7 +2070,7 @@
         <v>4</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
@@ -2087,7 +2087,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2096,7 +2096,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -2104,7 +2104,7 @@
         <v>5</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -2112,7 +2112,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
@@ -2123,7 +2123,7 @@
         <v>6</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -2138,7 +2138,7 @@
         <v>6</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
@@ -2155,7 +2155,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -2170,7 +2170,7 @@
         <v>7</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
@@ -2187,7 +2187,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -2202,7 +2202,7 @@
         <v>9</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
@@ -2219,7 +2219,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -2234,7 +2234,7 @@
         <v>10</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
@@ -2251,7 +2251,7 @@
         <v>11</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -2266,7 +2266,7 @@
         <v>11</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
@@ -2283,7 +2283,7 @@
         <v>12</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -2298,7 +2298,7 @@
         <v>12</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
@@ -2315,22 +2315,22 @@
         <v>8</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -2338,16 +2338,16 @@
         <v>8</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -2361,22 +2361,22 @@
         <v>15</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -2384,7 +2384,7 @@
         <v>15</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
@@ -2401,22 +2401,22 @@
         <v>16</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -2424,7 +2424,7 @@
         <v>16</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
@@ -2441,7 +2441,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
@@ -2473,18 +2473,18 @@
         <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -2492,11 +2492,11 @@
         <v>2</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -2511,22 +2511,22 @@
         <v>13</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2536,16 +2536,16 @@
         <v>13</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="S37" s="4"/>
       <c r="T37" s="1"/>
@@ -2559,22 +2559,22 @@
         <v>14</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="1"/>
       <c r="I38" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -2582,7 +2582,7 @@
         <v>14</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -2590,7 +2590,7 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
@@ -2601,7 +2601,7 @@
         <v>17</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -2616,7 +2616,7 @@
         <v>17</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
@@ -2633,7 +2633,7 @@
         <v>18</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -2648,7 +2648,7 @@
         <v>18</v>
       </c>
       <c r="O40" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
@@ -2662,34 +2662,34 @@
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="J44" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
@@ -2697,7 +2697,7 @@
         <v>3</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2714,7 +2714,7 @@
         <v>4</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2731,7 +2731,7 @@
         <v>5</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2748,16 +2748,16 @@
         <v>6</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -2771,7 +2771,7 @@
         <v>7</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2788,29 +2788,29 @@
         <v>9</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K50" s="1"/>
     </row>
@@ -2819,7 +2819,7 @@
         <v>10</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2828,7 +2828,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -2838,7 +2838,7 @@
         <v>11</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2855,7 +2855,7 @@
         <v>12</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2872,16 +2872,16 @@
         <v>8</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -2895,16 +2895,16 @@
         <v>15</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -2918,16 +2918,16 @@
         <v>16</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
@@ -2941,25 +2941,25 @@
         <v>1</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I57" s="14"/>
       <c r="J57" s="1"/>
@@ -2970,22 +2970,22 @@
         <v>2</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -2995,22 +2995,22 @@
         <v>13</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -3020,30 +3020,30 @@
         <v>14</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J60" s="1"/>
       <c r="K60" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3051,22 +3051,22 @@
         <v>17</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -3076,62 +3076,62 @@
         <v>18</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B63" s="13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B64" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -3142,16 +3142,16 @@
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>

--- a/setup_permission_user.xlsx
+++ b/setup_permission_user.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FA868A-3402-4613-BEE0-0C6CCE618F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6BB2C9-4AE3-40EE-B8C5-E523312DB1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2EB50EEB-0106-4F15-B613-BBA954882111}"/>
+    <workbookView xWindow="6390" yWindow="315" windowWidth="21600" windowHeight="11385" xr2:uid="{2EB50EEB-0106-4F15-B613-BBA954882111}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="35">
   <si>
     <t>Add</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>permission_action_module</t>
-  </si>
-  <si>
-    <t>Group</t>
   </si>
   <si>
     <t>x</t>
@@ -286,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -301,12 +298,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46012EC4-43BC-4E95-AAA1-2214AE93313A}">
-  <dimension ref="A1:AJ65"/>
+  <dimension ref="A1:AJ62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +639,7 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>22</v>
@@ -674,7 +672,7 @@
         <v>25</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>22</v>
@@ -707,7 +705,7 @@
         <v>25</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>22</v>
@@ -1952,7 +1950,7 @@
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>22</v>
@@ -1985,7 +1983,7 @@
         <v>25</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>22</v>
@@ -2660,6 +2658,35 @@
       <c r="W40" s="7"/>
       <c r="X40" s="7"/>
     </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C43" s="14">
+        <v>1</v>
+      </c>
+      <c r="D43" s="14">
+        <v>2</v>
+      </c>
+      <c r="E43" s="14">
+        <v>3</v>
+      </c>
+      <c r="F43" s="14">
+        <v>4</v>
+      </c>
+      <c r="G43" s="14">
+        <v>5</v>
+      </c>
+      <c r="H43" s="14">
+        <v>6</v>
+      </c>
+      <c r="I43" s="14">
+        <v>7</v>
+      </c>
+      <c r="J43" s="14">
+        <v>8</v>
+      </c>
+      <c r="K43" s="14">
+        <v>9</v>
+      </c>
+    </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>22</v>
@@ -2683,13 +2710,13 @@
         <v>26</v>
       </c>
       <c r="I44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
@@ -2697,11 +2724,17 @@
         <v>3</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -2713,65 +2746,75 @@
       <c r="A46">
         <v>4</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
+      <c r="B46" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5</v>
       </c>
-      <c r="B47" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="B47" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
+      <c r="K47" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>6</v>
       </c>
-      <c r="B48" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="B48" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
+      <c r="K48" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>7</v>
       </c>
-      <c r="B49" s="13" t="s">
-        <v>7</v>
+      <c r="B49" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2787,49 +2830,39 @@
       <c r="A50">
         <v>9</v>
       </c>
-      <c r="B50" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K50" s="1"/>
+      <c r="B50" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10</v>
       </c>
-      <c r="B51" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="B51" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
@@ -2837,237 +2870,255 @@
       <c r="A52">
         <v>11</v>
       </c>
-      <c r="B52" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
+      <c r="B52" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>12</v>
       </c>
-      <c r="B53" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
+      <c r="B53" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>8</v>
       </c>
-      <c r="B54" s="13" t="s">
-        <v>12</v>
+      <c r="B54" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
+      <c r="K54" s="12"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>15</v>
       </c>
-      <c r="B55" s="13" t="s">
-        <v>13</v>
+      <c r="B55" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
+      <c r="K55" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>16</v>
       </c>
-      <c r="B56" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
+      <c r="B56" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
-      <c r="B57" s="13" t="s">
-        <v>15</v>
+      <c r="B57" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I57" s="14"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2</v>
       </c>
-      <c r="B58" s="13" t="s">
-        <v>16</v>
+      <c r="B58" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="I58" s="1"/>
       <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
+      <c r="K58" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>13</v>
       </c>
-      <c r="B59" s="13" t="s">
-        <v>17</v>
+      <c r="B59" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
+      <c r="G59" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H59" s="1"/>
-      <c r="I59" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="I59" s="1"/>
       <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
+      <c r="K59" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>14</v>
       </c>
-      <c r="B60" s="13" t="s">
-        <v>18</v>
+      <c r="B60" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F60" s="1"/>
-      <c r="G60" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>17</v>
       </c>
-      <c r="B61" s="13" t="s">
-        <v>19</v>
+      <c r="B61" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
@@ -3075,90 +3126,24 @@
       <c r="A62">
         <v>18</v>
       </c>
-      <c r="B62" s="13" t="s">
-        <v>20</v>
+      <c r="B62" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F62" s="1"/>
-      <c r="G62" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="G62" s="1"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/setup_permission_user.xlsx
+++ b/setup_permission_user.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6BB2C9-4AE3-40EE-B8C5-E523312DB1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9944C0-7BB8-4E39-9358-3A5E20256326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="315" windowWidth="21600" windowHeight="11385" xr2:uid="{2EB50EEB-0106-4F15-B613-BBA954882111}"/>
+    <workbookView xWindow="-26835" yWindow="1980" windowWidth="21600" windowHeight="11385" xr2:uid="{2EB50EEB-0106-4F15-B613-BBA954882111}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="49">
   <si>
     <t>Add</t>
   </si>
@@ -139,6 +139,48 @@
   </si>
   <si>
     <t>3:Lead</t>
+  </si>
+  <si>
+    <t>userGroups</t>
+  </si>
+  <si>
+    <t>permissionUserMenus</t>
+  </si>
+  <si>
+    <t>permissionGroups</t>
+  </si>
+  <si>
+    <t>actionModules</t>
+  </si>
+  <si>
+    <t>branchs</t>
+  </si>
+  <si>
+    <t>handovers</t>
+  </si>
+  <si>
+    <t>infoDevices</t>
+  </si>
+  <si>
+    <t>blockingWebs</t>
+  </si>
+  <si>
+    <t>devices</t>
+  </si>
+  <si>
+    <t>devicesRepos</t>
+  </si>
+  <si>
+    <t>memberProjects</t>
+  </si>
+  <si>
+    <t>notifications</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>tasks</t>
   </si>
 </sst>
 </file>
@@ -185,7 +227,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,6 +261,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -305,6 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46012EC4-43BC-4E95-AAA1-2214AE93313A}">
-  <dimension ref="A1:AJ62"/>
+  <dimension ref="A1:AJ104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,7 +1326,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>23</v>
@@ -1310,7 +1359,7 @@
         <v>12</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
@@ -1325,7 +1374,7 @@
         <v>12</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
@@ -1948,372 +1997,645 @@
       <c r="AI19" s="7"/>
       <c r="AJ19" s="7"/>
     </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="15"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="15"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>29</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="N21">
+        <v>29</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Z21">
+        <v>29</v>
+      </c>
+      <c r="AA21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="7"/>
+    </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="U22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="V22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="W22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="X22" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A22">
+        <v>30</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="N22">
+        <v>30</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Z22">
+        <v>30</v>
+      </c>
+      <c r="AA22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="7"/>
+      <c r="AJ22" s="7"/>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
       <c r="N23">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
+      <c r="Z23">
+        <v>31</v>
+      </c>
+      <c r="AA23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="7"/>
+      <c r="AJ23" s="7"/>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>4</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
       <c r="N24">
-        <v>4</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
+      <c r="Z24">
+        <v>20</v>
+      </c>
+      <c r="AA24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="7"/>
+      <c r="AG24" s="7"/>
+      <c r="AH24" s="7"/>
+      <c r="AI24" s="7"/>
+      <c r="AJ24" s="7"/>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>5</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="N25">
-        <v>5</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Z25">
+        <v>21</v>
+      </c>
+      <c r="AA25" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="7"/>
+      <c r="AJ25" s="7"/>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>6</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
       <c r="N26">
-        <v>6</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
       <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
+      <c r="T26" s="8"/>
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
+      <c r="Z26">
+        <v>22</v>
+      </c>
+      <c r="AA26" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="7"/>
+      <c r="AI26" s="7"/>
+      <c r="AJ26" s="7"/>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>7</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
       <c r="N27">
-        <v>7</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
       <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
+      <c r="T27" s="8"/>
       <c r="U27" s="7"/>
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
+      <c r="Z27">
+        <v>23</v>
+      </c>
+      <c r="AA27" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="7"/>
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="7"/>
+      <c r="AJ27" s="7"/>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>9</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
       <c r="N28">
-        <v>9</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
       <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
+      <c r="T28" s="8"/>
       <c r="U28" s="7"/>
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
+      <c r="Z28">
+        <v>24</v>
+      </c>
+      <c r="AA28" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="7"/>
+      <c r="AH28" s="7"/>
+      <c r="AI28" s="7"/>
+      <c r="AJ28" s="7"/>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>10</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
       <c r="N29">
-        <v>10</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
       <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
+      <c r="T29" s="8"/>
       <c r="U29" s="7"/>
       <c r="V29" s="7"/>
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
+      <c r="Z29">
+        <v>25</v>
+      </c>
+      <c r="AA29" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="7"/>
+      <c r="AH29" s="7"/>
+      <c r="AI29" s="7"/>
+      <c r="AJ29" s="7"/>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>11</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
       <c r="N30">
-        <v>11</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="U30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="V30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W30" s="1"/>
+      <c r="X30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z30">
+        <v>26</v>
+      </c>
+      <c r="AA30" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="4"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>12</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
       <c r="N31">
-        <v>12</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="O31" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S31" s="1"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Z31">
+        <v>27</v>
+      </c>
+      <c r="AA31" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="7"/>
+      <c r="AH31" s="7"/>
+      <c r="AI31" s="7"/>
+      <c r="AJ31" s="7"/>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>8</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>23</v>
@@ -2325,41 +2647,48 @@
         <v>23</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="G32" s="4"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="N32">
-        <v>8</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P32" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q32" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="R32" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Z32">
+        <v>28</v>
+      </c>
+      <c r="AA32" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="7"/>
+      <c r="AH32" s="7"/>
+      <c r="AI32" s="7"/>
+      <c r="AJ32" s="7"/>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>15</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>23</v>
@@ -2371,383 +2700,228 @@
         <v>23</v>
       </c>
       <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="G33" s="4"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="N33">
-        <v>15</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="7"/>
-      <c r="X33" s="7"/>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>16</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="N34">
-        <v>16</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="7"/>
-      <c r="X34" s="7"/>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S33" s="1"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Z33">
+        <v>32</v>
+      </c>
+      <c r="AA33" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="4"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="N35">
+      <c r="E42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="7"/>
-      <c r="X35" s="7"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="R42" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="N36">
-        <v>2</v>
-      </c>
-      <c r="O36" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>13</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="N37">
-        <v>13</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P37" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q37" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="R37" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="S37" s="4"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>14</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="N38">
-        <v>14</v>
-      </c>
-      <c r="O38" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>17</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="N39">
-        <v>17</v>
-      </c>
-      <c r="O39" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="7"/>
-      <c r="V39" s="7"/>
-      <c r="W39" s="7"/>
-      <c r="X39" s="7"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>18</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="N40">
-        <v>18</v>
-      </c>
-      <c r="O40" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="7"/>
-      <c r="V40" s="7"/>
-      <c r="W40" s="7"/>
-      <c r="X40" s="7"/>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C43" s="14">
-        <v>1</v>
-      </c>
-      <c r="D43" s="14">
-        <v>2</v>
-      </c>
-      <c r="E43" s="14">
+      <c r="S42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="14">
+      <c r="T42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="14">
+      <c r="U42" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="14">
+      <c r="V42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X42" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I43" s="14">
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="N43">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J43" s="14">
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="N44">
+        <v>4</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K43" s="14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>3</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+      <c r="I45" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>4</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2758,63 +2932,92 @@
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N46">
+        <v>6</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>5</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="N47">
+        <v>7</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>6</v>
-      </c>
-      <c r="B48" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="N48">
+        <v>9</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>7</v>
-      </c>
-      <c r="B49" s="11" t="s">
         <v>10</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2825,13 +3028,28 @@
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N49">
+        <v>10</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>9</v>
-      </c>
-      <c r="B50" s="11" t="s">
         <v>11</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2842,308 +3060,1328 @@
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N50">
+        <v>11</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>10</v>
-      </c>
-      <c r="B51" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="N51">
+        <v>12</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>11</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
+      <c r="I52" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N52">
+        <v>8</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P52" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R52" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>12</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="N53">
+        <v>15</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>8</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I54" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="J54" s="1"/>
-      <c r="K54" s="12"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K54" s="1"/>
+      <c r="N54">
+        <v>16</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="7"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>15</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="7"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>16</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
+      <c r="I56" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="J56" s="1"/>
-      <c r="K56" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K56" s="1"/>
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57">
+        <v>13</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="N57">
+        <v>13</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P57" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q57" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R57" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S57" s="4"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>14</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="N58">
+        <v>14</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>17</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="N59">
+        <v>17</v>
+      </c>
+      <c r="O59" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="7"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>18</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="N60">
+        <v>18</v>
+      </c>
+      <c r="O60" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="7"/>
+      <c r="V60" s="7"/>
+      <c r="W60" s="7"/>
+      <c r="X60" s="7"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="15"/>
+      <c r="R61" s="15"/>
+      <c r="S61" s="15"/>
+      <c r="T61" s="15"/>
+      <c r="U61" s="15"/>
+      <c r="V61" s="15"/>
+      <c r="W61" s="15"/>
+      <c r="X61" s="15"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>29</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="N62">
+        <v>29</v>
+      </c>
+      <c r="O62" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="7"/>
+      <c r="V62" s="7"/>
+      <c r="W62" s="7"/>
+      <c r="X62" s="7"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>30</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="N63">
+        <v>30</v>
+      </c>
+      <c r="O63" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
+      <c r="V63" s="7"/>
+      <c r="W63" s="7"/>
+      <c r="X63" s="7"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>31</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="N64">
+        <v>31</v>
+      </c>
+      <c r="O64" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="7"/>
+      <c r="T64" s="7"/>
+      <c r="U64" s="7"/>
+      <c r="V64" s="7"/>
+      <c r="W64" s="7"/>
+      <c r="X64" s="7"/>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>20</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="N65">
+        <v>20</v>
+      </c>
+      <c r="O65" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7"/>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>21</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="N66">
+        <v>21</v>
+      </c>
+      <c r="O66" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="7"/>
+      <c r="W66" s="7"/>
+      <c r="X66" s="7"/>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>22</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="N67">
+        <v>22</v>
+      </c>
+      <c r="O67" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
+      <c r="W67" s="7"/>
+      <c r="X67" s="7"/>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>23</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="N68">
+        <v>23</v>
+      </c>
+      <c r="O68" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="8"/>
+      <c r="R68" s="8"/>
+      <c r="S68" s="7"/>
+      <c r="T68" s="8"/>
+      <c r="U68" s="7"/>
+      <c r="V68" s="7"/>
+      <c r="W68" s="7"/>
+      <c r="X68" s="7"/>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>24</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="N69">
+        <v>24</v>
+      </c>
+      <c r="O69" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="8"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="8"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="7"/>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>25</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="N70">
+        <v>25</v>
+      </c>
+      <c r="O70" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="P70" s="8"/>
+      <c r="Q70" s="8"/>
+      <c r="R70" s="8"/>
+      <c r="S70" s="7"/>
+      <c r="T70" s="8"/>
+      <c r="U70" s="7"/>
+      <c r="V70" s="7"/>
+      <c r="W70" s="7"/>
+      <c r="X70" s="7"/>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>26</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="8"/>
+      <c r="N71">
+        <v>26</v>
+      </c>
+      <c r="O71" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="8"/>
+      <c r="U71" s="8"/>
+      <c r="V71" s="8"/>
+      <c r="W71" s="7"/>
+      <c r="X71" s="8"/>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>27</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="N72">
+        <v>27</v>
+      </c>
+      <c r="O72" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="7"/>
+      <c r="T72" s="8"/>
+      <c r="U72" s="7"/>
+      <c r="V72" s="7"/>
+      <c r="W72" s="7"/>
+      <c r="X72" s="7"/>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>28</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="N73">
+        <v>28</v>
+      </c>
+      <c r="O73" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="8"/>
+      <c r="R73" s="8"/>
+      <c r="S73" s="7"/>
+      <c r="T73" s="8"/>
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7"/>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>32</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="N74">
+        <v>32</v>
+      </c>
+      <c r="O74" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P74" s="8"/>
+      <c r="Q74" s="8"/>
+      <c r="R74" s="8"/>
+      <c r="S74" s="7"/>
+      <c r="T74" s="8"/>
+      <c r="U74" s="7"/>
+      <c r="V74" s="7"/>
+      <c r="W74" s="7"/>
+      <c r="X74" s="7"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C85" s="14">
         <v>1</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="D85" s="14">
+        <v>2</v>
+      </c>
+      <c r="E85" s="14">
+        <v>3</v>
+      </c>
+      <c r="F85" s="14">
+        <v>4</v>
+      </c>
+      <c r="G85" s="14">
+        <v>5</v>
+      </c>
+      <c r="H85" s="14">
+        <v>6</v>
+      </c>
+      <c r="I85" s="14">
+        <v>7</v>
+      </c>
+      <c r="J85" s="14">
+        <v>8</v>
+      </c>
+      <c r="K85" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B86" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>3</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>4</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>5</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>6</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>7</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>9</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>10</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>11</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>12</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="13"/>
+      <c r="K95" s="13"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>8</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="12"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>15</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>16</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="C99" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>2</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B100" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="C100" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>13</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B101" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="C101" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>14</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B102" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="C102" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>17</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B103" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="C103" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>18</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B104" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
+      <c r="C104" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
